--- a/term/CodeSystem-FSIII.xlsx
+++ b/term/CodeSystem-FSIII.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T15:43:23+02:00</t>
+    <t>2023-04-28T21:13:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/CodeSystem-FSIII.xlsx
+++ b/term/CodeSystem-FSIII.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T21:13:26+02:00</t>
+    <t>2023-05-07T23:02:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/CodeSystem-FSIII.xlsx
+++ b/term/CodeSystem-FSIII.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:02:44+02:00</t>
+    <t>2023-05-09T23:50:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/CodeSystem-FSIII.xlsx
+++ b/term/CodeSystem-FSIII.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-09T23:50:17+02:00</t>
+    <t>2023-06-07T11:52:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
